--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\GameTemplate\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765F918-7033-4E0C-B327-3D41CCC5E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663132E-2987-42B2-8416-DC6F45A98B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -61,22 +61,44 @@
     <t>##</t>
   </si>
   <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>分割符</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
+    <t>Characters.CharacterInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="B4:I14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -527,22 +549,54 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663132E-2987-42B2-8416-DC6F45A98B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784ADECB-9CED-4C4D-B9EC-4846EFDE0F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -98,6 +98,26 @@
   </si>
   <si>
     <t>sprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatsInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -599,6 +619,33 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:I1"/>

--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784ADECB-9CED-4C4D-B9EC-4846EFDE0F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9B1F7-20C4-45B1-A927-3AF4A6A50B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,10 +61,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>Characters.CharacterInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +110,14 @@
   </si>
   <si>
     <t>StatsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +493,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -569,10 +569,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -581,69 +581,69 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9B1F7-20C4-45B1-A927-3AF4A6A50B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D2BA54-FD03-4B7C-A588-B574C8939D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -118,6 +131,42 @@
   </si>
   <si>
     <t>CharacterInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.ItemTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affixes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items.Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -501,7 +550,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
     <col min="3" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
     <col min="8" max="9" width="15" style="1" customWidth="1"/>
     <col min="10" max="11" width="13.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
@@ -646,6 +696,65 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:I1"/>

--- a/Tools/Luban/Datas/_Beans.xlsx
+++ b/Tools/Luban/Datas/_Beans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\FlowerRPGGD\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D2BA54-FD03-4B7C-A588-B574C8939D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17359EB-B74B-4420-92E2-B310A83F2639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -107,14 +107,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -539,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.149999999999999" x14ac:dyDescent="0.45"/>
@@ -636,7 +628,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -663,7 +655,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -671,48 +663,45 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
@@ -720,7 +709,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -728,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -736,23 +725,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
